--- a/RegressionTests/Unit_Test_5/transformed_Ext_rows(1)/expected_aptrans_anon.603570-20_12_03 nov 7721.50.xlsx
+++ b/RegressionTests/Unit_Test_5/transformed_Ext_rows(1)/expected_aptrans_anon.603570-20_12_03 nov 7721.50.xlsx
@@ -4,43 +4,43 @@
   <fileVersion appName="Calc"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="27" activeTab="32"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="24" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="~January 2020" sheetId="1" r:id="rId2"/>
     <sheet name="January 2020" sheetId="12" r:id="rId3"/>
-    <sheet name="$January 2020" sheetId="24" r:id="rId4"/>
+    <sheet name="$January 2020" sheetId="13" r:id="rId4"/>
     <sheet name="~February 2020" sheetId="2" r:id="rId5"/>
-    <sheet name="February 2020" sheetId="13" r:id="rId6"/>
-    <sheet name="$February 2020" sheetId="25" r:id="rId7"/>
+    <sheet name="February 2020" sheetId="14" r:id="rId6"/>
+    <sheet name="$February 2020" sheetId="15" r:id="rId7"/>
     <sheet name="~March 2020" sheetId="3" r:id="rId8"/>
-    <sheet name="March 2020" sheetId="14" r:id="rId9"/>
-    <sheet name="$March 2020" sheetId="26" r:id="rId10"/>
+    <sheet name="March 2020" sheetId="16" r:id="rId9"/>
+    <sheet name="$March 2020" sheetId="17" r:id="rId10"/>
     <sheet name="~April 2020" sheetId="4" r:id="rId11"/>
-    <sheet name="April 2020" sheetId="15" r:id="rId12"/>
-    <sheet name="$April 2020" sheetId="27" r:id="rId13"/>
+    <sheet name="April 2020" sheetId="18" r:id="rId12"/>
+    <sheet name="$April 2020" sheetId="19" r:id="rId13"/>
     <sheet name="~May 2020" sheetId="5" r:id="rId14"/>
-    <sheet name="May 2020" sheetId="16" r:id="rId15"/>
-    <sheet name="$May 2020" sheetId="28" r:id="rId16"/>
+    <sheet name="May 2020" sheetId="20" r:id="rId15"/>
+    <sheet name="$May 2020" sheetId="21" r:id="rId16"/>
     <sheet name="~June 2020" sheetId="6" r:id="rId17"/>
-    <sheet name="June 2020" sheetId="17" r:id="rId18"/>
-    <sheet name="$June 2020" sheetId="29" r:id="rId19"/>
+    <sheet name="June 2020" sheetId="22" r:id="rId18"/>
+    <sheet name="$June 2020" sheetId="23" r:id="rId19"/>
     <sheet name="~July 2020" sheetId="7" r:id="rId20"/>
-    <sheet name="July 2020" sheetId="18" r:id="rId21"/>
-    <sheet name="$July 2020" sheetId="30" r:id="rId22"/>
+    <sheet name="July 2020" sheetId="24" r:id="rId21"/>
+    <sheet name="$July 2020" sheetId="25" r:id="rId22"/>
     <sheet name="~August 2020" sheetId="8" r:id="rId23"/>
-    <sheet name="August 2020" sheetId="19" r:id="rId24"/>
-    <sheet name="$August 2020" sheetId="31" r:id="rId25"/>
+    <sheet name="August 2020" sheetId="26" r:id="rId24"/>
+    <sheet name="$August 2020" sheetId="27" r:id="rId25"/>
     <sheet name="~September 2020" sheetId="9" r:id="rId26"/>
-    <sheet name="September 2020" sheetId="20" r:id="rId27"/>
-    <sheet name="$September 2020" sheetId="32" r:id="rId28"/>
+    <sheet name="September 2020" sheetId="28" r:id="rId27"/>
+    <sheet name="$September 2020" sheetId="29" r:id="rId28"/>
     <sheet name="~October 2020" sheetId="10" r:id="rId29"/>
-    <sheet name="October 2020" sheetId="21" r:id="rId30"/>
-    <sheet name="$October 2020" sheetId="33" r:id="rId31"/>
+    <sheet name="October 2020" sheetId="30" r:id="rId30"/>
+    <sheet name="$October 2020" sheetId="31" r:id="rId31"/>
     <sheet name="~November 2020" sheetId="11" r:id="rId32"/>
-    <sheet name="November 2020" sheetId="22" r:id="rId33"/>
-    <sheet name="$November 2020" sheetId="34" r:id="rId34"/>
-    <sheet name="#November 2020" sheetId="23" r:id="rId35"/>
+    <sheet name="November 2020" sheetId="32" r:id="rId33"/>
+    <sheet name="$November 2020" sheetId="33" r:id="rId34"/>
+    <sheet name="#November 2020" sheetId="34" r:id="rId35"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="124">
   <si>
     <t>ACG Aircraft Leasing Ireland Limited</t>
   </si>
@@ -246,9 +246,44 @@
     <t>EE</t>
   </si>
   <si>
+    <t>Refno 0798147 does not exist for Scheme ID 601010
+PPS number 4073312M does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0913434 does not exist for Scheme ID 601010
+PPS number 5439331U does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0899555 does not exist for Scheme ID 601010
+PPS number 2576389U does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>899555</t>
   </si>
   <si>
+    <t>1_Errors_found</t>
+  </si>
+  <si>
+    <t>Error Type</t>
+  </si>
+  <si>
+    <t>Error Description</t>
+  </si>
+  <si>
+    <t>Mandatory columns not found</t>
+  </si>
+  <si>
+    <t>No Contributions columns (EE/ER/AVC) were found</t>
+  </si>
+  <si>
+    <t>Refno 0969877 does not exist for Scheme ID 601010
+PPS number 6187938N does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>969877</t>
   </si>
   <si>
@@ -264,19 +299,169 @@
     <t>72679.83</t>
   </si>
   <si>
-    <t>1_Errors_found</t>
-  </si>
-  <si>
-    <t>Error Type</t>
-  </si>
-  <si>
-    <t>Error Description</t>
-  </si>
-  <si>
-    <t>schemeNotNull</t>
-  </si>
-  <si>
-    <t>The Scheme ID is missing</t>
+    <t>Payment Frequency</t>
+  </si>
+  <si>
+    <t>Invoice Number</t>
+  </si>
+  <si>
+    <t>Paypoint</t>
+  </si>
+  <si>
+    <t>Collection Method</t>
+  </si>
+  <si>
+    <t>Date Received</t>
+  </si>
+  <si>
+    <t>Override Date</t>
+  </si>
+  <si>
+    <t>Amount Received</t>
+  </si>
+  <si>
+    <t>MIRO Date</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>1178489</t>
+  </si>
+  <si>
+    <t>101001</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>18/08/2021</t>
+  </si>
+  <si>
+    <t>7,517.33</t>
+  </si>
+  <si>
+    <t>01/08/2021</t>
+  </si>
+  <si>
+    <t>ILIM August 2021</t>
+  </si>
+  <si>
+    <t>1173971</t>
+  </si>
+  <si>
+    <t>16/07/2021</t>
+  </si>
+  <si>
+    <t>1,533.32</t>
+  </si>
+  <si>
+    <t>01/06/2021</t>
+  </si>
+  <si>
+    <t>ILIM Julne 2021</t>
+  </si>
+  <si>
+    <t>1173522</t>
+  </si>
+  <si>
+    <t>5,984.01</t>
+  </si>
+  <si>
+    <t>ILIM June 2021</t>
+  </si>
+  <si>
+    <t>Annually</t>
+  </si>
+  <si>
+    <t>1149840</t>
+  </si>
+  <si>
+    <t>101002</t>
+  </si>
+  <si>
+    <t>25/02/2021</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>19,177.74</t>
+  </si>
+  <si>
+    <t>Revised Risk (Total/12*4)</t>
+  </si>
+  <si>
+    <t>1122062</t>
+  </si>
+  <si>
+    <t>01/07/2020</t>
+  </si>
+  <si>
+    <t>19,974.02</t>
+  </si>
+  <si>
+    <t>2020Risk</t>
+  </si>
+  <si>
+    <t>1067417</t>
+  </si>
+  <si>
+    <t>01/07/2019</t>
+  </si>
+  <si>
+    <t>15,889.15</t>
+  </si>
+  <si>
+    <t>2019 Costs</t>
+  </si>
+  <si>
+    <t>35300</t>
+  </si>
+  <si>
+    <t>101000</t>
+  </si>
+  <si>
+    <t>30/05/2000</t>
+  </si>
+  <si>
+    <t>06/04/2000</t>
+  </si>
+  <si>
+    <t>1,250.13</t>
+  </si>
+  <si>
+    <t>01/05/2000</t>
+  </si>
+  <si>
+    <t>May 00</t>
+  </si>
+  <si>
+    <t>35036</t>
+  </si>
+  <si>
+    <t>24/05/2000</t>
+  </si>
+  <si>
+    <t>03/05/2000</t>
+  </si>
+  <si>
+    <t>01/04/2000</t>
+  </si>
+  <si>
+    <t>Apr '00 intd</t>
+  </si>
+  <si>
+    <t>29038</t>
+  </si>
+  <si>
+    <t>15/03/2000</t>
+  </si>
+  <si>
+    <t>01/03/2000</t>
+  </si>
+  <si>
+    <t>Mar 00</t>
   </si>
 </sst>
 </file>
@@ -294,7 +479,7 @@
     <numFmt numFmtId="171" formatCode="0.00"/>
     <numFmt numFmtId="172" formatCode="0%"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -374,8 +559,23 @@
       <charset val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -463,7 +663,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
@@ -636,18 +836,19 @@
       <alignment horizontal="left" wrapText="1"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1593,7 +1794,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="43"/>
+    <col min="1" max="1" width="55" style="43"/>
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
@@ -1623,8 +1824,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
-      <c r="A2" s="46"/>
+    <row r="2" spans="1:8" ht="45">
+      <c r="A2" s="46" t="s">
+        <v>54</v>
+      </c>
       <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
@@ -1647,8 +1850,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
-      <c r="A3" s="46"/>
+    <row r="3" spans="1:8" ht="45">
+      <c r="A3" s="46" t="s">
+        <v>55</v>
+      </c>
       <c r="B3" s="43" t="s">
         <v>16</v>
       </c>
@@ -1671,10 +1876,12 @@
         <v>1000.0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25">
-      <c r="A4" s="46"/>
+    <row r="4" spans="1:8" ht="45">
+      <c r="A4" s="46" t="s">
+        <v>56</v>
+      </c>
       <c r="B4" s="43" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -1708,33 +1915,35 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="9" style="43"/>
+    <col min="1" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
+    <row r="1" spans="1:2" ht="15">
       <c r="A1" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="47"/>
+    </row>
+    <row r="2" spans="1:2" ht="15">
+      <c r="A2" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="47"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="48" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="15">
+      <c r="A3" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B3" s="43" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2015,7 +2224,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="43"/>
+    <col min="1" max="1" width="55" style="43"/>
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
@@ -2045,8 +2254,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
-      <c r="A2" s="46"/>
+    <row r="2" spans="1:8" ht="45">
+      <c r="A2" s="46" t="s">
+        <v>54</v>
+      </c>
       <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
@@ -2069,8 +2280,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
-      <c r="A3" s="46"/>
+    <row r="3" spans="1:8" ht="45">
+      <c r="A3" s="46" t="s">
+        <v>55</v>
+      </c>
       <c r="B3" s="43" t="s">
         <v>16</v>
       </c>
@@ -2093,10 +2306,12 @@
         <v>1000.0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25">
-      <c r="A4" s="46"/>
+    <row r="4" spans="1:8" ht="45">
+      <c r="A4" s="46" t="s">
+        <v>56</v>
+      </c>
       <c r="B4" s="43" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -2130,33 +2345,35 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="9" style="43"/>
+    <col min="1" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
+    <row r="1" spans="1:2" ht="15">
       <c r="A1" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="47"/>
+    </row>
+    <row r="2" spans="1:2" ht="15">
+      <c r="A2" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="47"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="48" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="15">
+      <c r="A3" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B3" s="43" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2641,7 +2858,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="43"/>
+    <col min="1" max="1" width="55" style="43"/>
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
@@ -2671,8 +2888,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
-      <c r="A2" s="46"/>
+    <row r="2" spans="1:8" ht="45">
+      <c r="A2" s="46" t="s">
+        <v>54</v>
+      </c>
       <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
@@ -2695,8 +2914,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
-      <c r="A3" s="46"/>
+    <row r="3" spans="1:8" ht="45">
+      <c r="A3" s="46" t="s">
+        <v>55</v>
+      </c>
       <c r="B3" s="43" t="s">
         <v>16</v>
       </c>
@@ -2719,10 +2940,12 @@
         <v>1000.0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25">
-      <c r="A4" s="46"/>
+    <row r="4" spans="1:8" ht="45">
+      <c r="A4" s="46" t="s">
+        <v>56</v>
+      </c>
       <c r="B4" s="43" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -2756,33 +2979,35 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="9" style="43"/>
+    <col min="1" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
+    <row r="1" spans="1:2" ht="15">
       <c r="A1" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="47"/>
+    </row>
+    <row r="2" spans="1:2" ht="15">
+      <c r="A2" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="47"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="48" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="15">
+      <c r="A3" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B3" s="43" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -3320,7 +3545,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="43"/>
+    <col min="1" max="1" width="55" style="43"/>
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
@@ -3350,8 +3575,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
-      <c r="A2" s="46"/>
+    <row r="2" spans="1:8" ht="45">
+      <c r="A2" s="46" t="s">
+        <v>54</v>
+      </c>
       <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
@@ -3374,8 +3601,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
-      <c r="A3" s="46"/>
+    <row r="3" spans="1:8" ht="45">
+      <c r="A3" s="46" t="s">
+        <v>55</v>
+      </c>
       <c r="B3" s="43" t="s">
         <v>16</v>
       </c>
@@ -3398,10 +3627,12 @@
         <v>958.33</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25">
-      <c r="A4" s="46"/>
+    <row r="4" spans="1:8" ht="45">
+      <c r="A4" s="46" t="s">
+        <v>56</v>
+      </c>
       <c r="B4" s="43" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -3441,7 +3672,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="43"/>
+    <col min="1" max="1" width="55" style="43"/>
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
@@ -3471,8 +3702,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
-      <c r="A2" s="46"/>
+    <row r="2" spans="1:8" ht="45">
+      <c r="A2" s="46" t="s">
+        <v>54</v>
+      </c>
       <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
@@ -3495,8 +3728,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
-      <c r="A3" s="46"/>
+    <row r="3" spans="1:8" ht="45">
+      <c r="A3" s="46" t="s">
+        <v>55</v>
+      </c>
       <c r="B3" s="43" t="s">
         <v>16</v>
       </c>
@@ -3519,10 +3754,12 @@
         <v>1000.0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25">
-      <c r="A4" s="46"/>
+    <row r="4" spans="1:8" ht="45">
+      <c r="A4" s="46" t="s">
+        <v>56</v>
+      </c>
       <c r="B4" s="43" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -3543,10 +3780,12 @@
         <v>1300.0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25">
-      <c r="A5" s="46"/>
+    <row r="5" spans="1:8" ht="45">
+      <c r="A5" s="46" t="s">
+        <v>63</v>
+      </c>
       <c r="B5" s="43" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>35</v>
@@ -3580,33 +3819,35 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="9" style="43"/>
+    <col min="1" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
+    <row r="1" spans="1:2" ht="15">
       <c r="A1" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="47"/>
+    </row>
+    <row r="2" spans="1:2" ht="15">
+      <c r="A2" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="47"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="48" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="15">
+      <c r="A3" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B3" s="43" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -4366,7 +4607,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="43"/>
+    <col min="1" max="1" width="55" style="43"/>
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
@@ -4396,8 +4637,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
-      <c r="A2" s="46"/>
+    <row r="2" spans="1:8" ht="45">
+      <c r="A2" s="46" t="s">
+        <v>54</v>
+      </c>
       <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
@@ -4420,8 +4663,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
-      <c r="A3" s="46"/>
+    <row r="3" spans="1:8" ht="45">
+      <c r="A3" s="46" t="s">
+        <v>55</v>
+      </c>
       <c r="B3" s="43" t="s">
         <v>16</v>
       </c>
@@ -4444,10 +4689,12 @@
         <v>1000.0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25">
-      <c r="A4" s="46"/>
+    <row r="4" spans="1:8" ht="45">
+      <c r="A4" s="46" t="s">
+        <v>56</v>
+      </c>
       <c r="B4" s="43" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -4468,10 +4715,12 @@
         <v>1300.0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25">
-      <c r="A5" s="46"/>
+    <row r="5" spans="1:8" ht="45">
+      <c r="A5" s="46" t="s">
+        <v>63</v>
+      </c>
       <c r="B5" s="43" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>35</v>
@@ -4505,33 +4754,35 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="9" style="43"/>
+    <col min="1" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
+    <row r="1" spans="1:2" ht="15">
       <c r="A1" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="47"/>
+    </row>
+    <row r="2" spans="1:2" ht="15">
+      <c r="A2" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="47"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="48" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="15">
+      <c r="A3" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B3" s="43" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -5097,7 +5348,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="43"/>
+    <col min="1" max="1" width="55" style="43"/>
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
@@ -5127,8 +5378,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
-      <c r="A2" s="46"/>
+    <row r="2" spans="1:8" ht="45">
+      <c r="A2" s="46" t="s">
+        <v>54</v>
+      </c>
       <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
@@ -5151,8 +5404,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
-      <c r="A3" s="46"/>
+    <row r="3" spans="1:8" ht="45">
+      <c r="A3" s="46" t="s">
+        <v>55</v>
+      </c>
       <c r="B3" s="43" t="s">
         <v>16</v>
       </c>
@@ -5175,10 +5430,12 @@
         <v>1000.0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25">
-      <c r="A4" s="46"/>
+    <row r="4" spans="1:8" ht="45">
+      <c r="A4" s="46" t="s">
+        <v>56</v>
+      </c>
       <c r="B4" s="43" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -5199,10 +5456,12 @@
         <v>1300.0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25">
-      <c r="A5" s="46"/>
+    <row r="5" spans="1:8" ht="45">
+      <c r="A5" s="46" t="s">
+        <v>63</v>
+      </c>
       <c r="B5" s="43" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>35</v>
@@ -5236,33 +5495,35 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="9" style="43"/>
+    <col min="1" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
+    <row r="1" spans="1:2" ht="15">
       <c r="A1" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="47"/>
+    </row>
+    <row r="2" spans="1:2" ht="15">
+      <c r="A2" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="47"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="48" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="15">
+      <c r="A3" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B3" s="43" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -5828,7 +6089,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="43"/>
+    <col min="1" max="1" width="55" style="43"/>
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
@@ -5858,8 +6119,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
-      <c r="A2" s="46"/>
+    <row r="2" spans="1:8" ht="45">
+      <c r="A2" s="46" t="s">
+        <v>54</v>
+      </c>
       <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
@@ -5882,8 +6145,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
-      <c r="A3" s="46"/>
+    <row r="3" spans="1:8" ht="45">
+      <c r="A3" s="46" t="s">
+        <v>55</v>
+      </c>
       <c r="B3" s="43" t="s">
         <v>16</v>
       </c>
@@ -5906,10 +6171,12 @@
         <v>1000.0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25">
-      <c r="A4" s="46"/>
+    <row r="4" spans="1:8" ht="45">
+      <c r="A4" s="46" t="s">
+        <v>56</v>
+      </c>
       <c r="B4" s="43" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -5930,10 +6197,12 @@
         <v>1300.0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25">
-      <c r="A5" s="46"/>
+    <row r="5" spans="1:8" ht="45">
+      <c r="A5" s="46" t="s">
+        <v>63</v>
+      </c>
       <c r="B5" s="43" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>35</v>
@@ -5967,33 +6236,35 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="9" style="43"/>
+    <col min="1" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
+    <row r="1" spans="1:2" ht="15">
       <c r="A1" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="47"/>
+    </row>
+    <row r="2" spans="1:2" ht="15">
+      <c r="A2" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="47"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="48" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="15">
+      <c r="A3" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B3" s="43" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -6009,33 +6280,35 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="9" style="43"/>
+    <col min="1" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
+    <row r="1" spans="1:2" ht="15">
       <c r="A1" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="47"/>
+    </row>
+    <row r="2" spans="1:2" ht="15">
+      <c r="A2" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="47"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="48" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="15">
+      <c r="A3" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B3" s="43" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -6601,7 +6874,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="43"/>
+    <col min="1" max="1" width="55" style="43"/>
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
@@ -6631,8 +6904,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
-      <c r="A2" s="46"/>
+    <row r="2" spans="1:8" ht="45">
+      <c r="A2" s="46" t="s">
+        <v>54</v>
+      </c>
       <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
@@ -6655,8 +6930,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
-      <c r="A3" s="46"/>
+    <row r="3" spans="1:8" ht="45">
+      <c r="A3" s="46" t="s">
+        <v>55</v>
+      </c>
       <c r="B3" s="43" t="s">
         <v>16</v>
       </c>
@@ -6679,10 +6956,12 @@
         <v>1000.0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25">
-      <c r="A4" s="46"/>
+    <row r="4" spans="1:8" ht="45">
+      <c r="A4" s="46" t="s">
+        <v>56</v>
+      </c>
       <c r="B4" s="43" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -6703,10 +6982,12 @@
         <v>1300.0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25">
-      <c r="A5" s="46"/>
+    <row r="5" spans="1:8" ht="45">
+      <c r="A5" s="46" t="s">
+        <v>63</v>
+      </c>
       <c r="B5" s="43" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>35</v>
@@ -6740,45 +7021,6 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="43"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="47"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
@@ -6788,6 +7030,56 @@
     <col min="1" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2" ht="15">
+      <c r="A1" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="47"/>
+    </row>
+    <row r="2" spans="1:2" ht="15">
+      <c r="A2" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15">
+      <c r="A3" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="17.75" style="43"/>
+    <col min="2" max="2" width="14.125" style="43"/>
+    <col min="3" max="3" width="8.25" style="43"/>
+    <col min="4" max="4" width="15.75" style="43"/>
+    <col min="5" max="5" width="13.25" style="43"/>
+    <col min="6" max="6" width="12.625" style="43"/>
+    <col min="7" max="7" width="15.75" style="43"/>
+    <col min="8" max="8" width="10.5" style="43"/>
+    <col min="9" max="9" width="22.125" style="43"/>
+    <col min="10" max="16384" width="9.25" style="43"/>
+  </cols>
+  <sheetData>
     <row r="1" spans="1:3" ht="15">
       <c r="A1" s="43" t="s">
         <v>53</v>
@@ -6812,22 +7104,312 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" s="43" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" s="43" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" s="43" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" s="43" t="s">
-        <v>59</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15">
+      <c r="A12" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15">
+      <c r="A13" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15">
+      <c r="A14" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" s="43" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15">
+      <c r="A15" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15">
+      <c r="A16" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15">
+      <c r="A17" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="I17" s="43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15">
+      <c r="A18" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18" s="43" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15">
+      <c r="A19" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="I19" s="43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15">
+      <c r="A20" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="I20" s="43" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15">
+      <c r="A21" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="H21" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="I21" s="43" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -7108,7 +7690,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="43"/>
+    <col min="1" max="1" width="55" style="43"/>
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
@@ -7138,8 +7720,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
-      <c r="A2" s="46"/>
+    <row r="2" spans="1:8" ht="45">
+      <c r="A2" s="46" t="s">
+        <v>54</v>
+      </c>
       <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
@@ -7162,8 +7746,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
-      <c r="A3" s="46"/>
+    <row r="3" spans="1:8" ht="45">
+      <c r="A3" s="46" t="s">
+        <v>55</v>
+      </c>
       <c r="B3" s="43" t="s">
         <v>16</v>
       </c>
@@ -7186,10 +7772,12 @@
         <v>958.33</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25">
-      <c r="A4" s="46"/>
+    <row r="4" spans="1:8" ht="45">
+      <c r="A4" s="46" t="s">
+        <v>56</v>
+      </c>
       <c r="B4" s="43" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -7223,33 +7811,35 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="9" style="43"/>
+    <col min="1" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
+    <row r="1" spans="1:2" ht="15">
       <c r="A1" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="47"/>
+    </row>
+    <row r="2" spans="1:2" ht="15">
+      <c r="A2" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="47"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="48" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="15">
+      <c r="A3" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B3" s="43" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -7530,7 +8120,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="43"/>
+    <col min="1" max="1" width="55" style="43"/>
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
@@ -7560,8 +8150,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
-      <c r="A2" s="46"/>
+    <row r="2" spans="1:8" ht="45">
+      <c r="A2" s="46" t="s">
+        <v>54</v>
+      </c>
       <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
@@ -7584,8 +8176,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
-      <c r="A3" s="46"/>
+    <row r="3" spans="1:8" ht="45">
+      <c r="A3" s="46" t="s">
+        <v>55</v>
+      </c>
       <c r="B3" s="43" t="s">
         <v>16</v>
       </c>
@@ -7608,10 +8202,12 @@
         <v>958.33</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25">
-      <c r="A4" s="46"/>
+    <row r="4" spans="1:8" ht="45">
+      <c r="A4" s="46" t="s">
+        <v>56</v>
+      </c>
       <c r="B4" s="43" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -7645,33 +8241,35 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="9" style="43"/>
+    <col min="1" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
+    <row r="1" spans="1:2" ht="15">
       <c r="A1" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="47"/>
+    </row>
+    <row r="2" spans="1:2" ht="15">
+      <c r="A2" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="47"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="48" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="15">
+      <c r="A3" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B3" s="43" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/RegressionTests/Unit_Test_5/transformed_Ext_rows(1)/expected_aptrans_anon.603570-20_12_03 nov 7721.50.xlsx
+++ b/RegressionTests/Unit_Test_5/transformed_Ext_rows(1)/expected_aptrans_anon.603570-20_12_03 nov 7721.50.xlsx
@@ -631,10 +631,10 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
+      </top>
       <bottom/>
     </border>
   </borders>
@@ -663,7 +663,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
@@ -837,11 +837,14 @@
       <protection/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1851,7 +1854,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B3" s="43" t="s">
@@ -1877,7 +1880,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="43" t="s">
@@ -1925,16 +1928,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="48"/>
     </row>
     <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2281,7 +2284,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B3" s="43" t="s">
@@ -2307,7 +2310,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="43" t="s">
@@ -2355,16 +2358,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="48"/>
     </row>
     <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2915,7 +2918,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B3" s="43" t="s">
@@ -2941,7 +2944,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="43" t="s">
@@ -2989,16 +2992,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="48"/>
     </row>
     <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3602,7 +3605,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B3" s="43" t="s">
@@ -3628,7 +3631,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="43" t="s">
@@ -3729,7 +3732,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B3" s="43" t="s">
@@ -3755,7 +3758,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="43" t="s">
@@ -3781,7 +3784,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="45">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="47" t="s">
         <v>63</v>
       </c>
       <c r="B5" s="43" t="s">
@@ -3829,16 +3832,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="48"/>
     </row>
     <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4664,7 +4667,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B3" s="43" t="s">
@@ -4690,7 +4693,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="43" t="s">
@@ -4716,7 +4719,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="45">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="47" t="s">
         <v>63</v>
       </c>
       <c r="B5" s="43" t="s">
@@ -4764,16 +4767,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="48"/>
     </row>
     <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5405,7 +5408,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B3" s="43" t="s">
@@ -5431,7 +5434,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="43" t="s">
@@ -5457,7 +5460,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="45">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="47" t="s">
         <v>63</v>
       </c>
       <c r="B5" s="43" t="s">
@@ -5505,16 +5508,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="48"/>
     </row>
     <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6146,7 +6149,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B3" s="43" t="s">
@@ -6172,7 +6175,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="43" t="s">
@@ -6198,7 +6201,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="45">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="47" t="s">
         <v>63</v>
       </c>
       <c r="B5" s="43" t="s">
@@ -6246,16 +6249,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="48"/>
     </row>
     <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6290,16 +6293,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="48"/>
     </row>
     <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6931,7 +6934,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B3" s="43" t="s">
@@ -6957,7 +6960,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="43" t="s">
@@ -6983,7 +6986,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="45">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="47" t="s">
         <v>63</v>
       </c>
       <c r="B5" s="43" t="s">
@@ -7031,16 +7034,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="48"/>
     </row>
     <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>60</v>
       </c>
     </row>
@@ -7123,31 +7126,31 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="49" t="s">
+      <c r="E12" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="49" t="s">
+      <c r="F12" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="H12" s="49" t="s">
+      <c r="H12" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="I12" s="49" t="s">
+      <c r="I12" s="50" t="s">
         <v>77</v>
       </c>
     </row>
@@ -7747,7 +7750,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B3" s="43" t="s">
@@ -7773,7 +7776,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="43" t="s">
@@ -7821,16 +7824,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="48"/>
     </row>
     <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>60</v>
       </c>
     </row>
@@ -8177,7 +8180,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B3" s="43" t="s">
@@ -8203,7 +8206,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="43" t="s">
@@ -8251,16 +8254,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="48"/>
     </row>
     <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>60</v>
       </c>
     </row>

--- a/RegressionTests/Unit_Test_5/transformed_Ext_rows(1)/expected_aptrans_anon.603570-20_12_03 nov 7721.50.xlsx
+++ b/RegressionTests/Unit_Test_5/transformed_Ext_rows(1)/expected_aptrans_anon.603570-20_12_03 nov 7721.50.xlsx
@@ -4,43 +4,43 @@
   <fileVersion appName="Calc"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="24" activeTab="29"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="27" activeTab="32"/>
   </bookViews>
   <sheets>
     <sheet name="~January 2020" sheetId="1" r:id="rId2"/>
     <sheet name="January 2020" sheetId="12" r:id="rId3"/>
-    <sheet name="$January 2020" sheetId="13" r:id="rId4"/>
+    <sheet name="$January 2020" sheetId="24" r:id="rId4"/>
     <sheet name="~February 2020" sheetId="2" r:id="rId5"/>
-    <sheet name="February 2020" sheetId="14" r:id="rId6"/>
-    <sheet name="$February 2020" sheetId="15" r:id="rId7"/>
+    <sheet name="February 2020" sheetId="13" r:id="rId6"/>
+    <sheet name="$February 2020" sheetId="25" r:id="rId7"/>
     <sheet name="~March 2020" sheetId="3" r:id="rId8"/>
-    <sheet name="March 2020" sheetId="16" r:id="rId9"/>
-    <sheet name="$March 2020" sheetId="17" r:id="rId10"/>
+    <sheet name="March 2020" sheetId="14" r:id="rId9"/>
+    <sheet name="$March 2020" sheetId="26" r:id="rId10"/>
     <sheet name="~April 2020" sheetId="4" r:id="rId11"/>
-    <sheet name="April 2020" sheetId="18" r:id="rId12"/>
-    <sheet name="$April 2020" sheetId="19" r:id="rId13"/>
+    <sheet name="April 2020" sheetId="15" r:id="rId12"/>
+    <sheet name="$April 2020" sheetId="27" r:id="rId13"/>
     <sheet name="~May 2020" sheetId="5" r:id="rId14"/>
-    <sheet name="May 2020" sheetId="20" r:id="rId15"/>
-    <sheet name="$May 2020" sheetId="21" r:id="rId16"/>
+    <sheet name="May 2020" sheetId="16" r:id="rId15"/>
+    <sheet name="$May 2020" sheetId="28" r:id="rId16"/>
     <sheet name="~June 2020" sheetId="6" r:id="rId17"/>
-    <sheet name="June 2020" sheetId="22" r:id="rId18"/>
-    <sheet name="$June 2020" sheetId="23" r:id="rId19"/>
+    <sheet name="June 2020" sheetId="17" r:id="rId18"/>
+    <sheet name="$June 2020" sheetId="29" r:id="rId19"/>
     <sheet name="~July 2020" sheetId="7" r:id="rId20"/>
-    <sheet name="July 2020" sheetId="24" r:id="rId21"/>
-    <sheet name="$July 2020" sheetId="25" r:id="rId22"/>
+    <sheet name="July 2020" sheetId="18" r:id="rId21"/>
+    <sheet name="$July 2020" sheetId="30" r:id="rId22"/>
     <sheet name="~August 2020" sheetId="8" r:id="rId23"/>
-    <sheet name="August 2020" sheetId="26" r:id="rId24"/>
-    <sheet name="$August 2020" sheetId="27" r:id="rId25"/>
+    <sheet name="August 2020" sheetId="19" r:id="rId24"/>
+    <sheet name="$August 2020" sheetId="31" r:id="rId25"/>
     <sheet name="~September 2020" sheetId="9" r:id="rId26"/>
-    <sheet name="September 2020" sheetId="28" r:id="rId27"/>
-    <sheet name="$September 2020" sheetId="29" r:id="rId28"/>
+    <sheet name="September 2020" sheetId="20" r:id="rId27"/>
+    <sheet name="$September 2020" sheetId="32" r:id="rId28"/>
     <sheet name="~October 2020" sheetId="10" r:id="rId29"/>
-    <sheet name="October 2020" sheetId="30" r:id="rId30"/>
-    <sheet name="$October 2020" sheetId="31" r:id="rId31"/>
+    <sheet name="October 2020" sheetId="21" r:id="rId30"/>
+    <sheet name="$October 2020" sheetId="33" r:id="rId31"/>
     <sheet name="~November 2020" sheetId="11" r:id="rId32"/>
-    <sheet name="November 2020" sheetId="32" r:id="rId33"/>
-    <sheet name="$November 2020" sheetId="33" r:id="rId34"/>
-    <sheet name="#November 2020" sheetId="34" r:id="rId35"/>
+    <sheet name="November 2020" sheetId="22" r:id="rId33"/>
+    <sheet name="$November 2020" sheetId="34" r:id="rId34"/>
+    <sheet name="#November 2020" sheetId="23" r:id="rId35"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="65">
   <si>
     <t>ACG Aircraft Leasing Ireland Limited</t>
   </si>
@@ -246,42 +246,7 @@
     <t>EE</t>
   </si>
   <si>
-    <t>Refno 0798147 does not exist for Scheme ID 601010
-PPS number 4073312M does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>Refno 0913434 does not exist for Scheme ID 601010
-PPS number 5439331U does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>Refno 0899555 does not exist for Scheme ID 601010
-PPS number 2576389U does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>899555</t>
-  </si>
-  <si>
-    <t>1_Errors_found</t>
-  </si>
-  <si>
-    <t>Error Type</t>
-  </si>
-  <si>
-    <t>Error Description</t>
-  </si>
-  <si>
-    <t>Mandatory columns not found</t>
-  </si>
-  <si>
-    <t>No Contributions columns (EE/ER/AVC) were found</t>
-  </si>
-  <si>
-    <t>Refno 0969877 does not exist for Scheme ID 601010
-PPS number 6187938N does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
   </si>
   <si>
     <t>969877</t>
@@ -299,169 +264,19 @@
     <t>72679.83</t>
   </si>
   <si>
-    <t>Payment Frequency</t>
+    <t>1_Errors_found</t>
   </si>
   <si>
-    <t>Invoice Number</t>
+    <t>Error Type</t>
   </si>
   <si>
-    <t>Paypoint</t>
+    <t>Error Description</t>
   </si>
   <si>
-    <t>Collection Method</t>
+    <t>schemeNotNull</t>
   </si>
   <si>
-    <t>Date Received</t>
-  </si>
-  <si>
-    <t>Override Date</t>
-  </si>
-  <si>
-    <t>Amount Received</t>
-  </si>
-  <si>
-    <t>MIRO Date</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>1178489</t>
-  </si>
-  <si>
-    <t>101001</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>18/08/2021</t>
-  </si>
-  <si>
-    <t>7,517.33</t>
-  </si>
-  <si>
-    <t>01/08/2021</t>
-  </si>
-  <si>
-    <t>ILIM August 2021</t>
-  </si>
-  <si>
-    <t>1173971</t>
-  </si>
-  <si>
-    <t>16/07/2021</t>
-  </si>
-  <si>
-    <t>1,533.32</t>
-  </si>
-  <si>
-    <t>01/06/2021</t>
-  </si>
-  <si>
-    <t>ILIM Julne 2021</t>
-  </si>
-  <si>
-    <t>1173522</t>
-  </si>
-  <si>
-    <t>5,984.01</t>
-  </si>
-  <si>
-    <t>ILIM June 2021</t>
-  </si>
-  <si>
-    <t>Annually</t>
-  </si>
-  <si>
-    <t>1149840</t>
-  </si>
-  <si>
-    <t>101002</t>
-  </si>
-  <si>
-    <t>25/02/2021</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>19,177.74</t>
-  </si>
-  <si>
-    <t>Revised Risk (Total/12*4)</t>
-  </si>
-  <si>
-    <t>1122062</t>
-  </si>
-  <si>
-    <t>01/07/2020</t>
-  </si>
-  <si>
-    <t>19,974.02</t>
-  </si>
-  <si>
-    <t>2020Risk</t>
-  </si>
-  <si>
-    <t>1067417</t>
-  </si>
-  <si>
-    <t>01/07/2019</t>
-  </si>
-  <si>
-    <t>15,889.15</t>
-  </si>
-  <si>
-    <t>2019 Costs</t>
-  </si>
-  <si>
-    <t>35300</t>
-  </si>
-  <si>
-    <t>101000</t>
-  </si>
-  <si>
-    <t>30/05/2000</t>
-  </si>
-  <si>
-    <t>06/04/2000</t>
-  </si>
-  <si>
-    <t>1,250.13</t>
-  </si>
-  <si>
-    <t>01/05/2000</t>
-  </si>
-  <si>
-    <t>May 00</t>
-  </si>
-  <si>
-    <t>35036</t>
-  </si>
-  <si>
-    <t>24/05/2000</t>
-  </si>
-  <si>
-    <t>03/05/2000</t>
-  </si>
-  <si>
-    <t>01/04/2000</t>
-  </si>
-  <si>
-    <t>Apr '00 intd</t>
-  </si>
-  <si>
-    <t>29038</t>
-  </si>
-  <si>
-    <t>15/03/2000</t>
-  </si>
-  <si>
-    <t>01/03/2000</t>
-  </si>
-  <si>
-    <t>Mar 00</t>
+    <t>The Scheme ID is missing</t>
   </si>
 </sst>
 </file>
@@ -479,7 +294,7 @@
     <numFmt numFmtId="171" formatCode="0.00"/>
     <numFmt numFmtId="172" formatCode="0%"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -559,7 +374,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -567,15 +381,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -663,7 +471,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
@@ -836,22 +644,21 @@
       <alignment horizontal="left" wrapText="1"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1797,11 +1604,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="55" style="43"/>
+    <col min="1" max="1" width="16.25" style="43"/>
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" ht="30">
       <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
@@ -1827,10 +1634,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45">
-      <c r="A2" s="46" t="s">
-        <v>54</v>
-      </c>
+    <row r="2" spans="1:8" ht="14.25">
+      <c r="A2" s="46"/>
       <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
@@ -1853,10 +1658,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="47" t="s">
-        <v>55</v>
-      </c>
+    <row r="3" spans="1:8" ht="14.25">
+      <c r="A3" s="47"/>
       <c r="B3" s="43" t="s">
         <v>16</v>
       </c>
@@ -1879,12 +1682,10 @@
         <v>1000.0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="47" t="s">
-        <v>56</v>
-      </c>
+    <row r="4" spans="1:8" ht="14.25">
+      <c r="A4" s="47"/>
       <c r="B4" s="43" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -1918,35 +1719,33 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="9.25" style="43"/>
+    <col min="1" max="16384" width="9" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15">
+    <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="48" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B1" s="48"/>
     </row>
-    <row r="2" spans="1:2" ht="15">
+    <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="49" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2227,11 +2026,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="55" style="43"/>
+    <col min="1" max="1" width="16.25" style="43"/>
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" ht="30">
       <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
@@ -2257,10 +2056,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45">
-      <c r="A2" s="46" t="s">
-        <v>54</v>
-      </c>
+    <row r="2" spans="1:8" ht="14.25">
+      <c r="A2" s="46"/>
       <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
@@ -2283,10 +2080,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="47" t="s">
-        <v>55</v>
-      </c>
+    <row r="3" spans="1:8" ht="14.25">
+      <c r="A3" s="47"/>
       <c r="B3" s="43" t="s">
         <v>16</v>
       </c>
@@ -2309,12 +2104,10 @@
         <v>1000.0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="47" t="s">
-        <v>56</v>
-      </c>
+    <row r="4" spans="1:8" ht="14.25">
+      <c r="A4" s="47"/>
       <c r="B4" s="43" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -2348,35 +2141,33 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="9.25" style="43"/>
+    <col min="1" max="16384" width="9" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15">
+    <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="48" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B1" s="48"/>
     </row>
-    <row r="2" spans="1:2" ht="15">
+    <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="49" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2861,11 +2652,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="55" style="43"/>
+    <col min="1" max="1" width="16.25" style="43"/>
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" ht="30">
       <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
@@ -2891,10 +2682,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45">
-      <c r="A2" s="46" t="s">
-        <v>54</v>
-      </c>
+    <row r="2" spans="1:8" ht="14.25">
+      <c r="A2" s="46"/>
       <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
@@ -2917,10 +2706,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="47" t="s">
-        <v>55</v>
-      </c>
+    <row r="3" spans="1:8" ht="14.25">
+      <c r="A3" s="47"/>
       <c r="B3" s="43" t="s">
         <v>16</v>
       </c>
@@ -2943,12 +2730,10 @@
         <v>1000.0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="47" t="s">
-        <v>56</v>
-      </c>
+    <row r="4" spans="1:8" ht="14.25">
+      <c r="A4" s="47"/>
       <c r="B4" s="43" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -2982,35 +2767,33 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="9.25" style="43"/>
+    <col min="1" max="16384" width="9" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15">
+    <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="48" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B1" s="48"/>
     </row>
-    <row r="2" spans="1:2" ht="15">
+    <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="49" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -3548,11 +3331,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="55" style="43"/>
+    <col min="1" max="1" width="16.25" style="43"/>
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" ht="30">
       <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
@@ -3578,10 +3361,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45">
-      <c r="A2" s="46" t="s">
-        <v>54</v>
-      </c>
+    <row r="2" spans="1:8" ht="14.25">
+      <c r="A2" s="46"/>
       <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
@@ -3604,10 +3385,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="47" t="s">
-        <v>55</v>
-      </c>
+    <row r="3" spans="1:8" ht="14.25">
+      <c r="A3" s="47"/>
       <c r="B3" s="43" t="s">
         <v>16</v>
       </c>
@@ -3630,12 +3409,10 @@
         <v>958.33</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="47" t="s">
-        <v>56</v>
-      </c>
+    <row r="4" spans="1:8" ht="14.25">
+      <c r="A4" s="47"/>
       <c r="B4" s="43" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -3675,11 +3452,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="55" style="43"/>
+    <col min="1" max="1" width="16.25" style="43"/>
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" ht="30">
       <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
@@ -3705,10 +3482,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45">
-      <c r="A2" s="46" t="s">
-        <v>54</v>
-      </c>
+    <row r="2" spans="1:8" ht="14.25">
+      <c r="A2" s="46"/>
       <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
@@ -3731,10 +3506,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="47" t="s">
-        <v>55</v>
-      </c>
+    <row r="3" spans="1:8" ht="14.25">
+      <c r="A3" s="47"/>
       <c r="B3" s="43" t="s">
         <v>16</v>
       </c>
@@ -3757,12 +3530,10 @@
         <v>1000.0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="47" t="s">
-        <v>56</v>
-      </c>
+    <row r="4" spans="1:8" ht="14.25">
+      <c r="A4" s="47"/>
       <c r="B4" s="43" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -3783,12 +3554,10 @@
         <v>1300.0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="45">
-      <c r="A5" s="47" t="s">
-        <v>63</v>
-      </c>
+    <row r="5" spans="1:8" ht="14.25">
+      <c r="A5" s="47"/>
       <c r="B5" s="43" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>35</v>
@@ -3822,35 +3591,33 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="9.25" style="43"/>
+    <col min="1" max="16384" width="9" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15">
+    <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="48" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B1" s="48"/>
     </row>
-    <row r="2" spans="1:2" ht="15">
+    <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="49" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -4610,11 +4377,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="55" style="43"/>
+    <col min="1" max="1" width="16.25" style="43"/>
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" ht="30">
       <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
@@ -4640,10 +4407,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45">
-      <c r="A2" s="46" t="s">
-        <v>54</v>
-      </c>
+    <row r="2" spans="1:8" ht="14.25">
+      <c r="A2" s="46"/>
       <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
@@ -4666,10 +4431,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="47" t="s">
-        <v>55</v>
-      </c>
+    <row r="3" spans="1:8" ht="14.25">
+      <c r="A3" s="47"/>
       <c r="B3" s="43" t="s">
         <v>16</v>
       </c>
@@ -4692,12 +4455,10 @@
         <v>1000.0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="47" t="s">
-        <v>56</v>
-      </c>
+    <row r="4" spans="1:8" ht="14.25">
+      <c r="A4" s="47"/>
       <c r="B4" s="43" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -4718,12 +4479,10 @@
         <v>1300.0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="45">
-      <c r="A5" s="47" t="s">
-        <v>63</v>
-      </c>
+    <row r="5" spans="1:8" ht="14.25">
+      <c r="A5" s="47"/>
       <c r="B5" s="43" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>35</v>
@@ -4757,35 +4516,33 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="9.25" style="43"/>
+    <col min="1" max="16384" width="9" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15">
+    <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="48" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B1" s="48"/>
     </row>
-    <row r="2" spans="1:2" ht="15">
+    <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="49" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -5351,11 +5108,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="55" style="43"/>
+    <col min="1" max="1" width="16.25" style="43"/>
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" ht="30">
       <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
@@ -5381,10 +5138,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45">
-      <c r="A2" s="46" t="s">
-        <v>54</v>
-      </c>
+    <row r="2" spans="1:8" ht="14.25">
+      <c r="A2" s="46"/>
       <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
@@ -5407,10 +5162,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="47" t="s">
-        <v>55</v>
-      </c>
+    <row r="3" spans="1:8" ht="14.25">
+      <c r="A3" s="47"/>
       <c r="B3" s="43" t="s">
         <v>16</v>
       </c>
@@ -5433,12 +5186,10 @@
         <v>1000.0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="47" t="s">
-        <v>56</v>
-      </c>
+    <row r="4" spans="1:8" ht="14.25">
+      <c r="A4" s="47"/>
       <c r="B4" s="43" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -5459,12 +5210,10 @@
         <v>1300.0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="45">
-      <c r="A5" s="47" t="s">
-        <v>63</v>
-      </c>
+    <row r="5" spans="1:8" ht="14.25">
+      <c r="A5" s="47"/>
       <c r="B5" s="43" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>35</v>
@@ -5498,35 +5247,33 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="9.25" style="43"/>
+    <col min="1" max="16384" width="9" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15">
+    <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="48" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B1" s="48"/>
     </row>
-    <row r="2" spans="1:2" ht="15">
+    <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="49" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -6092,11 +5839,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="55" style="43"/>
+    <col min="1" max="1" width="16.25" style="43"/>
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" ht="30">
       <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
@@ -6122,10 +5869,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45">
-      <c r="A2" s="46" t="s">
-        <v>54</v>
-      </c>
+    <row r="2" spans="1:8" ht="14.25">
+      <c r="A2" s="46"/>
       <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
@@ -6148,10 +5893,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="47" t="s">
-        <v>55</v>
-      </c>
+    <row r="3" spans="1:8" ht="14.25">
+      <c r="A3" s="47"/>
       <c r="B3" s="43" t="s">
         <v>16</v>
       </c>
@@ -6174,12 +5917,10 @@
         <v>1000.0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="47" t="s">
-        <v>56</v>
-      </c>
+    <row r="4" spans="1:8" ht="14.25">
+      <c r="A4" s="47"/>
       <c r="B4" s="43" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -6200,12 +5941,10 @@
         <v>1300.0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="45">
-      <c r="A5" s="47" t="s">
-        <v>63</v>
-      </c>
+    <row r="5" spans="1:8" ht="14.25">
+      <c r="A5" s="47"/>
       <c r="B5" s="43" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>35</v>
@@ -6239,35 +5978,33 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="9.25" style="43"/>
+    <col min="1" max="16384" width="9" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15">
+    <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="48" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B1" s="48"/>
     </row>
-    <row r="2" spans="1:2" ht="15">
+    <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="49" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -6283,35 +6020,33 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="9.25" style="43"/>
+    <col min="1" max="16384" width="9" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15">
+    <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="48" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B1" s="48"/>
     </row>
-    <row r="2" spans="1:2" ht="15">
+    <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="49" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -6877,11 +6612,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="55" style="43"/>
+    <col min="1" max="1" width="16.25" style="43"/>
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" ht="30">
       <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
@@ -6907,10 +6642,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45">
-      <c r="A2" s="46" t="s">
-        <v>54</v>
-      </c>
+    <row r="2" spans="1:8" ht="14.25">
+      <c r="A2" s="46"/>
       <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
@@ -6933,10 +6666,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="47" t="s">
-        <v>55</v>
-      </c>
+    <row r="3" spans="1:8" ht="14.25">
+      <c r="A3" s="47"/>
       <c r="B3" s="43" t="s">
         <v>16</v>
       </c>
@@ -6959,12 +6690,10 @@
         <v>1000.0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="47" t="s">
-        <v>56</v>
-      </c>
+    <row r="4" spans="1:8" ht="14.25">
+      <c r="A4" s="47"/>
       <c r="B4" s="43" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -6985,12 +6714,10 @@
         <v>1300.0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="45">
-      <c r="A5" s="47" t="s">
-        <v>63</v>
-      </c>
+    <row r="5" spans="1:8" ht="14.25">
+      <c r="A5" s="47"/>
       <c r="B5" s="43" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>35</v>
@@ -7024,6 +6751,45 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="12.75">
+      <c r="A1" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="48"/>
+    </row>
+    <row r="2" spans="1:2" ht="12.75">
+      <c r="A2" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75">
+      <c r="A3" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
@@ -7033,56 +6799,6 @@
     <col min="1" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="48"/>
-    </row>
-    <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15">
-      <c r="A3" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:I21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="17.75" style="43"/>
-    <col min="2" max="2" width="14.125" style="43"/>
-    <col min="3" max="3" width="8.25" style="43"/>
-    <col min="4" max="4" width="15.75" style="43"/>
-    <col min="5" max="5" width="13.25" style="43"/>
-    <col min="6" max="6" width="12.625" style="43"/>
-    <col min="7" max="7" width="15.75" style="43"/>
-    <col min="8" max="8" width="10.5" style="43"/>
-    <col min="9" max="9" width="22.125" style="43"/>
-    <col min="10" max="16384" width="9.25" style="43"/>
-  </cols>
-  <sheetData>
     <row r="1" spans="1:3" ht="15">
       <c r="A1" s="43" t="s">
         <v>53</v>
@@ -7107,312 +6823,22 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" s="43" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" s="43" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" s="43" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" s="43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="H12" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" s="50" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15">
-      <c r="A13" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="H13" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="I13" s="43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15">
-      <c r="A14" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="G14" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="H14" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="I14" s="43" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15">
-      <c r="A15" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="G15" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="I15" s="43" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15">
-      <c r="A16" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="G16" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="H16" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="I16" s="43" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15">
-      <c r="A17" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="H17" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="I17" s="43" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15">
-      <c r="A18" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="F18" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="H18" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="I18" s="43" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15">
-      <c r="A19" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="F19" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="G19" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="H19" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="I19" s="43" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15">
-      <c r="A20" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="D20" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="H20" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="I20" s="43" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15">
-      <c r="A21" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="D21" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="F21" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="G21" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="H21" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="I21" s="43" t="s">
-        <v>123</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -7693,11 +7119,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="55" style="43"/>
+    <col min="1" max="1" width="16.25" style="43"/>
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" ht="30">
       <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
@@ -7723,10 +7149,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45">
-      <c r="A2" s="46" t="s">
-        <v>54</v>
-      </c>
+    <row r="2" spans="1:8" ht="14.25">
+      <c r="A2" s="46"/>
       <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
@@ -7749,10 +7173,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="47" t="s">
-        <v>55</v>
-      </c>
+    <row r="3" spans="1:8" ht="14.25">
+      <c r="A3" s="47"/>
       <c r="B3" s="43" t="s">
         <v>16</v>
       </c>
@@ -7775,12 +7197,10 @@
         <v>958.33</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="47" t="s">
-        <v>56</v>
-      </c>
+    <row r="4" spans="1:8" ht="14.25">
+      <c r="A4" s="47"/>
       <c r="B4" s="43" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -7814,35 +7234,33 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="9.25" style="43"/>
+    <col min="1" max="16384" width="9" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15">
+    <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="48" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B1" s="48"/>
     </row>
-    <row r="2" spans="1:2" ht="15">
+    <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="49" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -8123,11 +7541,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="55" style="43"/>
+    <col min="1" max="1" width="16.25" style="43"/>
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" ht="30">
       <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
@@ -8153,10 +7571,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45">
-      <c r="A2" s="46" t="s">
-        <v>54</v>
-      </c>
+    <row r="2" spans="1:8" ht="14.25">
+      <c r="A2" s="46"/>
       <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
@@ -8179,10 +7595,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="47" t="s">
-        <v>55</v>
-      </c>
+    <row r="3" spans="1:8" ht="14.25">
+      <c r="A3" s="47"/>
       <c r="B3" s="43" t="s">
         <v>16</v>
       </c>
@@ -8205,12 +7619,10 @@
         <v>958.33</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="47" t="s">
-        <v>56</v>
-      </c>
+    <row r="4" spans="1:8" ht="14.25">
+      <c r="A4" s="47"/>
       <c r="B4" s="43" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -8244,35 +7656,33 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="9.25" style="43"/>
+    <col min="1" max="16384" width="9" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15">
+    <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="48" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B1" s="48"/>
     </row>
-    <row r="2" spans="1:2" ht="15">
+    <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="49" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
